--- a/Assignment2/world-data-2023.xlsx
+++ b/Assignment2/world-data-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryanshah/Dropbox/My Mac (Aryans-MBP)/Downloads/GitHub/FIT3179/Assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{30D0985F-0DF7-4B4F-8DB4-19EC67748E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C2ED5228-B730-014A-9FA6-C12D3B8DCCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16240" activeTab="1"/>
   </bookViews>
@@ -23488,7 +23488,7 @@
   <dimension ref="A1:AE195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D125" sqref="D1:D1048576"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
